--- a/CHUP.Myosins.LL.xlsx
+++ b/CHUP.Myosins.LL.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schoelz\Plant-Data-Survival-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jksch\Plant-Data-Survival-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8EE1BA-FAB4-4D0E-8BFA-090096849806}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="4960" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -188,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -623,11 +630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
